--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/20/seed3/result_data_KNN.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.096000000000001</v>
+        <v>-7.423999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.988</v>
+        <v>-11.953</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -575,7 +575,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.978</v>
+        <v>-13.08</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -592,7 +592,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.694</v>
+        <v>-7.379</v>
       </c>
     </row>
     <row r="12">
@@ -603,10 +603,10 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.806</v>
+        <v>-11.466</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.462</v>
+        <v>-7.775</v>
       </c>
     </row>
     <row r="13">
@@ -648,7 +648,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.222</v>
+        <v>-8.221</v>
       </c>
     </row>
     <row r="16">
@@ -676,7 +676,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.437999999999999</v>
+        <v>-8.228999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.762</v>
+        <v>-12.547</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -785,7 +785,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.384</v>
+        <v>-12.141</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.006</v>
+        <v>-7.255000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.652000000000001</v>
+        <v>-7.572</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.652000000000001</v>
+        <v>-7.609</v>
       </c>
     </row>
     <row r="29">
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.956</v>
+        <v>-7.362</v>
       </c>
     </row>
     <row r="33">
@@ -953,10 +953,10 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.242</v>
+        <v>-13.608</v>
       </c>
       <c r="D37" t="n">
-        <v>-6.980000000000001</v>
+        <v>-7.361</v>
       </c>
     </row>
     <row r="38">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.692</v>
+        <v>-7.578999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.766</v>
+        <v>-7.452</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.826000000000001</v>
+        <v>-8.022</v>
       </c>
     </row>
     <row r="52">
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.92</v>
+        <v>-13.837</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1348,7 +1348,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.922</v>
+        <v>-7.741</v>
       </c>
     </row>
     <row r="66">
@@ -1387,7 +1387,7 @@
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.168</v>
+        <v>-11.134</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.575999999999999</v>
+        <v>-7.374000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1513,7 +1513,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-13.42</v>
+        <v>-13.557</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1527,7 +1527,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-13.674</v>
+        <v>-13.401</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1541,7 +1541,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-14.276</v>
+        <v>-12.603</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-12.5</v>
+        <v>-12.858</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1569,7 +1569,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.586</v>
+        <v>-13.333</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1583,7 +1583,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.344</v>
+        <v>-12.354</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1611,10 +1611,10 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-12.936</v>
+        <v>-12.9</v>
       </c>
       <c r="D84" t="n">
-        <v>-7.932</v>
+        <v>-7.931</v>
       </c>
     </row>
     <row r="85">
@@ -1628,7 +1628,7 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.571999999999999</v>
+        <v>-8.654</v>
       </c>
     </row>
     <row r="86">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.209999999999999</v>
+        <v>-8.327</v>
       </c>
     </row>
     <row r="90">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.090000000000001</v>
+        <v>-7.024000000000001</v>
       </c>
     </row>
     <row r="94">
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.386</v>
+        <v>-7.506</v>
       </c>
     </row>
     <row r="96">
@@ -1810,7 +1810,7 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.416000000000001</v>
+        <v>-7.231</v>
       </c>
     </row>
     <row r="99">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.126000000000001</v>
+        <v>-8.215</v>
       </c>
     </row>
     <row r="100">
@@ -1849,10 +1849,10 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.936</v>
+        <v>-12.377</v>
       </c>
       <c r="D101" t="n">
-        <v>-6.867999999999999</v>
+        <v>-7.723999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -1863,10 +1863,10 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.278</v>
+        <v>-13.327</v>
       </c>
       <c r="D102" t="n">
-        <v>-6.928</v>
+        <v>-7.279999999999999</v>
       </c>
     </row>
     <row r="103">
